--- a/test_gros.xlsx
+++ b/test_gros.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C121"/>
+  <dimension ref="A1:C118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2427,57 +2427,6 @@
         </is>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>Reflected XSS All Clients</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>1071</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>Command Injection</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>304</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>SQL Injection</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>216</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/test_gros.xlsx
+++ b/test_gros.xlsx
@@ -502,7 +502,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>High PAGE 13 OF  2039</t>
         </is>
       </c>
     </row>

--- a/test_gros.xlsx
+++ b/test_gros.xlsx
@@ -502,7 +502,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>High PAGE 13 OF  2039</t>
+          <t>High</t>
         </is>
       </c>
     </row>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Low PAGE 14 OF  2039</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Missing X Frame  Options</t>
+          <t>Missing X Frame Options</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Low PAGE 15 OF  2039</t>
+          <t>Low</t>
         </is>
       </c>
     </row>
